--- a/biology/Médecine/Hypoplasie_congénitale_des_surrénales_liée_à_l'X/Hypoplasie_congénitale_des_surrénales_liée_à_l'X.xlsx
+++ b/biology/Médecine/Hypoplasie_congénitale_des_surrénales_liée_à_l'X/Hypoplasie_congénitale_des_surrénales_liée_à_l'X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypoplasie_cong%C3%A9nitale_des_surr%C3%A9nales_li%C3%A9e_%C3%A0_l%27X</t>
+          <t>Hypoplasie_congénitale_des_surrénales_liée_à_l'X</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L hypoplasie congénitale des surrénales liée à l'X est une maladie métabolique congénitale n'atteignant que les garçons en rapport avec une anomalie du métabolisme des stéroïdes surrénaliens.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypoplasie_cong%C3%A9nitale_des_surr%C3%A9nales_li%C3%A9e_%C3%A0_l%27X</t>
+          <t>Hypoplasie_congénitale_des_surrénales_liée_à_l'X</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène  NROB1 localisé sur le locus p21.3-p21.2 du chromosome X codant la DAX1 (protèine membre de la superfamille des récepteurs nucléaires orphelins 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypoplasie_cong%C3%A9nitale_des_surr%C3%A9nales_li%C3%A9e_%C3%A0_l%27X</t>
+          <t>Hypoplasie_congénitale_des_surrénales_liée_à_l'X</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypoplasie_cong%C3%A9nitale_des_surr%C3%A9nales_li%C3%A9e_%C3%A0_l%27X</t>
+          <t>Hypoplasie_congénitale_des_surrénales_liée_à_l'X</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -576,7 +594,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypoplasie_cong%C3%A9nitale_des_surr%C3%A9nales_li%C3%A9e_%C3%A0_l%27X</t>
+          <t>Hypoplasie_congénitale_des_surrénales_liée_à_l'X</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -591,79 +609,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Clinique
-Biologie
-I.R.M
-Génétique
-Diagnostic différentiel</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hypoplasie_cong%C3%A9nitale_des_surr%C3%A9nales_li%C3%A9e_%C3%A0_l%27X</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypoplasie_cong%C3%A9nitale_des_surr%C3%A9nales_li%C3%A9e_%C3%A0_l%27X</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Conseil génétique</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Mode de transmission
-Diagnostic prénatal</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hypoplasie_cong%C3%A9nitale_des_surr%C3%A9nales_li%C3%A9e_%C3%A0_l%27X</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypoplasie_cong%C3%A9nitale_des_surr%C3%A9nales_li%C3%A9e_%C3%A0_l%27X</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(fr) Orphanet [1]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 300200[2]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(fr) Orphanet 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 300200
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
